--- a/URS/DbLayouts/L5-管理性作業/NegQueryCust.xlsx
+++ b/URS/DbLayouts/L5-管理性作業/NegQueryCust.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC55BC84-457F-43EE-A49E-79D8C8266982}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3376ED2-8533-4DEE-B051-DEBD63ED376D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -181,10 +181,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CustIdEq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>CustId=</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -193,10 +189,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FirstAcDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">AcDate= ,AND FileYN= </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -205,10 +197,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AcDateEq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>SeqNo DESC</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -224,6 +212,18 @@
     <t>從1開始編
 依會計日期每產制一次就加一</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>custIdEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstAcDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>acDateEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -921,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="B9:G12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -945,7 +945,7 @@
         <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
@@ -1070,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>32</v>
@@ -1122,7 +1122,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1450,9 +1450,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1476,32 +1476,32 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>45</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
